--- a/fun.xlsx
+++ b/fun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School\Touhou\fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E56B37-BE74-427B-8869-111D8B3C558E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5370FF-1265-4B58-B64B-B546C262A911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{D3113E02-13ED-41F4-88B7-6F4779ECD36E}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{D3113E02-13ED-41F4-88B7-6F4779ECD36E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,9 +684,6 @@
     <t>メルラン・プリズムリバー</t>
   </si>
   <si>
-    <t>梅露兰·普莉兹姆利巴</t>
-  </si>
-  <si>
     <t>アリスの人形（上海、蓬莱、大江戸 他）</t>
   </si>
   <si>
@@ -730,9 +727,6 @@
   </si>
   <si>
     <t>リリカ・プリズムリバー</t>
-  </si>
-  <si>
-    <t>莉莉卡·普莉兹姆利巴</t>
   </si>
   <si>
     <t>C62サークルカットの娘</t>
@@ -1350,6 +1344,70 @@
   </si>
   <si>
     <t>译名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梅露兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普莉兹姆利巴</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莉莉卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普莉兹姆利巴</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1357,7 +1415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,6 +1449,13 @@
       <sz val="11"/>
       <color rgb="FF262626"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1476,7 +1541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1512,6 +1577,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1829,49 +1897,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F94BA-4786-49DD-A506-565677BF662D}">
   <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" t="s">
         <v>405</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>406</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" t="s">
         <v>407</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>408</v>
       </c>
-      <c r="E1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>409</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>410</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="I1" t="s">
-        <v>412</v>
-      </c>
-      <c r="J1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>56</v>
       </c>
@@ -1903,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>133</v>
       </c>
@@ -1914,10 +1982,10 @@
         <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F3" s="1">
         <v>310</v>
@@ -1935,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>155</v>
       </c>
@@ -1946,10 +2014,10 @@
         <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F4" s="1">
         <v>161</v>
@@ -1967,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>157</v>
       </c>
@@ -1978,10 +2046,10 @@
         <v>148</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F5" s="1">
         <v>139</v>
@@ -1999,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>165</v>
       </c>
@@ -2010,10 +2078,10 @@
         <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F6" s="1">
         <v>115</v>
@@ -2031,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>170</v>
       </c>
@@ -2042,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F7" s="1">
         <v>86</v>
@@ -2063,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>184</v>
       </c>
@@ -2074,10 +2142,10 @@
         <v>176</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F8" s="1">
         <v>49</v>
@@ -2095,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>142</v>
       </c>
@@ -2106,10 +2174,10 @@
         <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F9" s="1">
         <v>217</v>
@@ -2127,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>161</v>
       </c>
@@ -2138,10 +2206,10 @@
         <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F10" s="1">
         <v>130</v>
@@ -2159,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>166</v>
       </c>
@@ -2170,10 +2238,10 @@
         <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F11" s="1">
         <v>110</v>
@@ -2191,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>94</v>
       </c>
@@ -2223,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>130</v>
       </c>
@@ -2234,10 +2302,10 @@
         <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F13" s="1">
         <v>358</v>
@@ -2255,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>145</v>
       </c>
@@ -2266,10 +2334,10 @@
         <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F14" s="1">
         <v>203</v>
@@ -2287,7 +2355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>150</v>
       </c>
@@ -2298,10 +2366,10 @@
         <v>150</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F15" s="1">
         <v>188</v>
@@ -2319,7 +2387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>154</v>
       </c>
@@ -2330,10 +2398,10 @@
         <v>141</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F16" s="1">
         <v>171</v>
@@ -2351,7 +2419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>164</v>
       </c>
@@ -2362,10 +2430,10 @@
         <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F17" s="1">
         <v>117</v>
@@ -2383,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>168</v>
       </c>
@@ -2394,10 +2462,10 @@
         <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F18" s="1">
         <v>96</v>
@@ -2415,7 +2483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>175</v>
       </c>
@@ -2426,10 +2494,10 @@
         <v>171</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F19" s="1">
         <v>75</v>
@@ -2447,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>102</v>
       </c>
@@ -2479,7 +2547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>120</v>
       </c>
@@ -2490,10 +2558,10 @@
         <v>128</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="F21" s="1">
         <v>477</v>
@@ -2511,7 +2579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>144</v>
       </c>
@@ -2522,10 +2590,10 @@
         <v>151</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F22" s="1">
         <v>204</v>
@@ -2543,7 +2611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>146</v>
       </c>
@@ -2554,10 +2622,10 @@
         <v>135</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F23" s="1">
         <v>194</v>
@@ -2575,7 +2643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>173</v>
       </c>
@@ -2586,10 +2654,10 @@
         <v>173</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F24" s="1">
         <v>78</v>
@@ -2607,7 +2675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>67</v>
       </c>
@@ -2639,7 +2707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>135</v>
       </c>
@@ -2650,10 +2718,10 @@
         <v>132</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F26" s="1">
         <v>281</v>
@@ -2671,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>147</v>
       </c>
@@ -2682,10 +2750,10 @@
         <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F27" s="1">
         <v>193</v>
@@ -2703,7 +2771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>156</v>
       </c>
@@ -2714,10 +2782,10 @@
         <v>153</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F28" s="1">
         <v>140</v>
@@ -2735,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>169</v>
       </c>
@@ -2746,10 +2814,10 @@
         <v>137</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F29" s="1">
         <v>87</v>
@@ -2767,7 +2835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>181</v>
       </c>
@@ -2778,10 +2846,10 @@
         <v>181</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F30" s="1">
         <v>54</v>
@@ -2799,7 +2867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -2831,7 +2899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -2863,7 +2931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -2895,7 +2963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -2927,7 +2995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>17</v>
       </c>
@@ -2959,7 +3027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>18</v>
       </c>
@@ -2991,7 +3059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>21</v>
       </c>
@@ -3023,7 +3091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>57</v>
       </c>
@@ -3055,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>63</v>
       </c>
@@ -3087,7 +3155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -3119,7 +3187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>11</v>
       </c>
@@ -3151,7 +3219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>12</v>
       </c>
@@ -3183,7 +3251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -3215,7 +3283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>29</v>
       </c>
@@ -3247,7 +3315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>51</v>
       </c>
@@ -3279,7 +3347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="50" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>79</v>
       </c>
@@ -3293,7 +3361,7 @@
         <v>148</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F46" s="1">
         <v>1161</v>
@@ -3311,7 +3379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>90</v>
       </c>
@@ -3343,7 +3411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>91</v>
       </c>
@@ -3375,7 +3443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="50" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>116</v>
       </c>
@@ -3388,8 +3456,8 @@
       <c r="D49" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>218</v>
+      <c r="E49" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="F49" s="1">
         <v>513</v>
@@ -3407,7 +3475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="50" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>125</v>
       </c>
@@ -3418,10 +3486,10 @@
         <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="F50" s="1">
         <v>423</v>
@@ -3439,7 +3507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>160</v>
       </c>
@@ -3450,10 +3518,10 @@
         <v>158</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F51" s="1">
         <v>131</v>
@@ -3471,7 +3539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>27</v>
       </c>
@@ -3503,7 +3571,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>9</v>
       </c>
@@ -3535,7 +3603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>15</v>
       </c>
@@ -3567,7 +3635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>30</v>
       </c>
@@ -3599,7 +3667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>37</v>
       </c>
@@ -3631,7 +3699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>50</v>
       </c>
@@ -3663,7 +3731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -3695,7 +3763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>69</v>
       </c>
@@ -3727,7 +3795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>71</v>
       </c>
@@ -3759,7 +3827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>13</v>
       </c>
@@ -3791,7 +3859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>24</v>
       </c>
@@ -3823,7 +3891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -3855,7 +3923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>76</v>
       </c>
@@ -3887,7 +3955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>93</v>
       </c>
@@ -3919,7 +3987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>14</v>
       </c>
@@ -3951,7 +4019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>22</v>
       </c>
@@ -3983,7 +4051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>28</v>
       </c>
@@ -4015,7 +4083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41</v>
       </c>
@@ -4047,7 +4115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43</v>
       </c>
@@ -4079,7 +4147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>74</v>
       </c>
@@ -4111,7 +4179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>99</v>
       </c>
@@ -4143,7 +4211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>101</v>
       </c>
@@ -4175,7 +4243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>20</v>
       </c>
@@ -4207,7 +4275,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -4239,7 +4307,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>4</v>
       </c>
@@ -4271,7 +4339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>8</v>
       </c>
@@ -4303,7 +4371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>31</v>
       </c>
@@ -4335,7 +4403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>36</v>
       </c>
@@ -4349,7 +4417,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F79" s="1">
         <v>3144</v>
@@ -4367,7 +4435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>47</v>
       </c>
@@ -4399,7 +4467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4431,7 +4499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>108</v>
       </c>
@@ -4463,7 +4531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>138</v>
       </c>
@@ -4474,10 +4542,10 @@
         <v>131</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F83" s="1">
         <v>242</v>
@@ -4495,7 +4563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>23</v>
       </c>
@@ -4527,7 +4595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>49</v>
       </c>
@@ -4559,7 +4627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>53</v>
       </c>
@@ -4591,7 +4659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>54</v>
       </c>
@@ -4623,7 +4691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>65</v>
       </c>
@@ -4655,7 +4723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>105</v>
       </c>
@@ -4687,7 +4755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>123</v>
       </c>
@@ -4698,10 +4766,10 @@
         <v>114</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="F90" s="1">
         <v>429</v>
@@ -4719,7 +4787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>158</v>
       </c>
@@ -4730,10 +4798,10 @@
         <v>146</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F91" s="1">
         <v>138</v>
@@ -4751,7 +4819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>162</v>
       </c>
@@ -4762,10 +4830,10 @@
         <v>154</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F92" s="1">
         <v>122</v>
@@ -4781,7 +4849,7 @@
       </c>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>78</v>
       </c>
@@ -4813,7 +4881,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>103</v>
       </c>
@@ -4845,7 +4913,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>106</v>
       </c>
@@ -4877,7 +4945,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>113</v>
       </c>
@@ -4909,7 +4977,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>33</v>
       </c>
@@ -4941,7 +5009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>40</v>
       </c>
@@ -4973,7 +5041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>62</v>
       </c>
@@ -4987,7 +5055,7 @@
         <v>118</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F99" s="1">
         <v>1548</v>
@@ -5005,7 +5073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>73</v>
       </c>
@@ -5037,7 +5105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>86</v>
       </c>
@@ -5069,7 +5137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>92</v>
       </c>
@@ -5101,7 +5169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>112</v>
       </c>
@@ -5133,7 +5201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>19</v>
       </c>
@@ -5165,7 +5233,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>35</v>
       </c>
@@ -5197,7 +5265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>64</v>
       </c>
@@ -5229,7 +5297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>84</v>
       </c>
@@ -5261,7 +5329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>89</v>
       </c>
@@ -5293,7 +5361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>95</v>
       </c>
@@ -5307,7 +5375,7 @@
         <v>180</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F109" s="1">
         <v>787</v>
@@ -5325,7 +5393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>104</v>
       </c>
@@ -5357,7 +5425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>127</v>
       </c>
@@ -5368,10 +5436,10 @@
         <v>117</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F111" s="1">
         <v>416</v>
@@ -5389,7 +5457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>136</v>
       </c>
@@ -5400,10 +5468,10 @@
         <v>130</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F112" s="1">
         <v>272</v>
@@ -5421,7 +5489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>46</v>
       </c>
@@ -5453,7 +5521,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>82</v>
       </c>
@@ -5485,7 +5553,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>26</v>
       </c>
@@ -5517,7 +5585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>38</v>
       </c>
@@ -5549,7 +5617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44</v>
       </c>
@@ -5581,7 +5649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>58</v>
       </c>
@@ -5613,7 +5681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>60</v>
       </c>
@@ -5645,7 +5713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>107</v>
       </c>
@@ -5677,7 +5745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>132</v>
       </c>
@@ -5688,10 +5756,10 @@
         <v>120</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F121" s="1">
         <v>333</v>
@@ -5709,7 +5777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>32</v>
       </c>
@@ -5741,7 +5809,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>68</v>
       </c>
@@ -5773,7 +5841,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45</v>
       </c>
@@ -5805,7 +5873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>85</v>
       </c>
@@ -5837,7 +5905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>115</v>
       </c>
@@ -5869,7 +5937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>122</v>
       </c>
@@ -5880,10 +5948,10 @@
         <v>112</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F127" s="1">
         <v>451</v>
@@ -5901,7 +5969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>129</v>
       </c>
@@ -5912,10 +5980,10 @@
         <v>107</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F128" s="1">
         <v>383</v>
@@ -5933,7 +6001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>134</v>
       </c>
@@ -5944,10 +6012,10 @@
         <v>124</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F129" s="1">
         <v>282</v>
@@ -5965,7 +6033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>153</v>
       </c>
@@ -5976,10 +6044,10 @@
         <v>142</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F130" s="1">
         <v>175</v>
@@ -5997,7 +6065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>66</v>
       </c>
@@ -6029,7 +6097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>70</v>
       </c>
@@ -6061,7 +6129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>83</v>
       </c>
@@ -6093,7 +6161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>100</v>
       </c>
@@ -6125,7 +6193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>109</v>
       </c>
@@ -6139,7 +6207,7 @@
         <v>206</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F135" s="1">
         <v>585</v>
@@ -6157,7 +6225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>139</v>
       </c>
@@ -6168,10 +6236,10 @@
         <v>134</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F136" s="1">
         <v>235</v>
@@ -6189,7 +6257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>152</v>
       </c>
@@ -6200,10 +6268,10 @@
         <v>140</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F137" s="1">
         <v>178</v>
@@ -6221,7 +6289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>42</v>
       </c>
@@ -6253,7 +6321,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>55</v>
       </c>
@@ -6285,7 +6353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>59</v>
       </c>
@@ -6317,7 +6385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>61</v>
       </c>
@@ -6349,7 +6417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>98</v>
       </c>
@@ -6381,7 +6449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>124</v>
       </c>
@@ -6392,10 +6460,10 @@
         <v>106</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="F143" s="1">
         <v>426</v>
@@ -6413,7 +6481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>137</v>
       </c>
@@ -6424,10 +6492,10 @@
         <v>122</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F144" s="1">
         <v>264</v>
@@ -6445,7 +6513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>141</v>
       </c>
@@ -6456,10 +6524,10 @@
         <v>143</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F145" s="1">
         <v>227</v>
@@ -6477,7 +6545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>143</v>
       </c>
@@ -6488,10 +6556,10 @@
         <v>123</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F146" s="1">
         <v>206</v>
@@ -6509,7 +6577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>81</v>
       </c>
@@ -6541,7 +6609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>87</v>
       </c>
@@ -6573,7 +6641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>97</v>
       </c>
@@ -6605,7 +6673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>110</v>
       </c>
@@ -6637,7 +6705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>111</v>
       </c>
@@ -6669,7 +6737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>117</v>
       </c>
@@ -6680,10 +6748,10 @@
         <v>115</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="F152" s="1">
         <v>508</v>
@@ -6699,7 +6767,7 @@
       </c>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>1</v>
       </c>
@@ -6731,7 +6799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>2</v>
       </c>
@@ -6763,7 +6831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>34</v>
       </c>
@@ -6793,7 +6861,7 @@
       </c>
       <c r="J155" s="10"/>
     </row>
-    <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>39</v>
       </c>
@@ -6823,7 +6891,7 @@
       </c>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>48</v>
       </c>
@@ -6853,7 +6921,7 @@
       </c>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>72</v>
       </c>
@@ -6883,7 +6951,7 @@
       </c>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>77</v>
       </c>
@@ -6913,7 +6981,7 @@
       </c>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>88</v>
       </c>
@@ -6943,7 +7011,7 @@
       </c>
       <c r="J160" s="6"/>
     </row>
-    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>96</v>
       </c>
@@ -6973,7 +7041,7 @@
       </c>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="66.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>114</v>
       </c>
@@ -6987,7 +7055,7 @@
         <v>215</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F162" s="1">
         <v>527</v>
@@ -7003,7 +7071,7 @@
       </c>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>118</v>
       </c>
@@ -7014,10 +7082,10 @@
         <v>138</v>
       </c>
       <c r="D163" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="F163" s="1">
         <v>507</v>
@@ -7033,7 +7101,7 @@
       </c>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>119</v>
       </c>
@@ -7044,10 +7112,10 @@
         <v>108</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F164" s="1">
         <v>497</v>
@@ -7063,7 +7131,7 @@
       </c>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>121</v>
       </c>
@@ -7074,10 +7142,10 @@
         <v>104</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F165" s="1">
         <v>464</v>
@@ -7093,7 +7161,7 @@
       </c>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>126</v>
       </c>
@@ -7104,10 +7172,10 @@
         <v>151</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F166" s="2">
         <v>420</v>
@@ -7123,7 +7191,7 @@
       </c>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>128</v>
       </c>
@@ -7134,10 +7202,10 @@
         <v>118</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F167" s="1">
         <v>408</v>
@@ -7153,7 +7221,7 @@
       </c>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>131</v>
       </c>
@@ -7164,10 +7232,10 @@
         <v>125</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F168" s="1">
         <v>340</v>
@@ -7183,7 +7251,7 @@
       </c>
       <c r="J168" s="6"/>
     </row>
-    <row r="169" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>139</v>
       </c>
@@ -7194,10 +7262,10 @@
         <v>152</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F169" s="1">
         <v>235</v>
@@ -7213,7 +7281,7 @@
       </c>
       <c r="J169" s="9"/>
     </row>
-    <row r="170" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>148</v>
       </c>
@@ -7224,10 +7292,10 @@
         <v>136</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F170" s="1">
         <v>191</v>
@@ -7243,7 +7311,7 @@
       </c>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" spans="1:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>149</v>
       </c>
@@ -7254,10 +7322,10 @@
         <v>157</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F171" s="1">
         <v>189</v>
@@ -7273,7 +7341,7 @@
       </c>
       <c r="J171" s="9"/>
     </row>
-    <row r="172" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>151</v>
       </c>
@@ -7284,10 +7352,10 @@
         <v>133</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F172" s="1">
         <v>185</v>
@@ -7303,7 +7371,7 @@
       </c>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>159</v>
       </c>
@@ -7314,10 +7382,10 @@
         <v>145</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F173" s="1">
         <v>135</v>
@@ -7333,7 +7401,7 @@
       </c>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>163</v>
       </c>
@@ -7344,10 +7412,10 @@
         <v>148</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F174" s="1">
         <v>119</v>
@@ -7363,7 +7431,7 @@
       </c>
       <c r="J174" s="9"/>
     </row>
-    <row r="175" spans="1:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>167</v>
       </c>
@@ -7374,10 +7442,10 @@
         <v>162</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F175" s="1">
         <v>101</v>
@@ -7393,7 +7461,7 @@
       </c>
       <c r="J175" s="6"/>
     </row>
-    <row r="176" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>171</v>
       </c>
@@ -7404,10 +7472,10 @@
         <v>175</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F176" s="1">
         <v>85</v>
@@ -7423,7 +7491,7 @@
       </c>
       <c r="J176" s="11"/>
     </row>
-    <row r="177" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>172</v>
       </c>
@@ -7434,10 +7502,10 @@
         <v>161</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F177" s="1">
         <v>83</v>
@@ -7453,7 +7521,7 @@
       </c>
       <c r="J177" s="6"/>
     </row>
-    <row r="178" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>173</v>
       </c>
@@ -7464,10 +7532,10 @@
         <v>169</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F178" s="1">
         <v>78</v>
@@ -7483,7 +7551,7 @@
       </c>
       <c r="J178" s="6"/>
     </row>
-    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>176</v>
       </c>
@@ -7494,10 +7562,10 @@
         <v>172</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F179" s="1">
         <v>65</v>
@@ -7513,7 +7581,7 @@
       </c>
       <c r="J179" s="6"/>
     </row>
-    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>177</v>
       </c>
@@ -7524,10 +7592,10 @@
         <v>166</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F180" s="1">
         <v>64</v>
@@ -7543,7 +7611,7 @@
       </c>
       <c r="J180" s="6"/>
     </row>
-    <row r="181" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>177</v>
       </c>
@@ -7554,10 +7622,10 @@
         <v>179</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F181" s="1">
         <v>64</v>
@@ -7573,7 +7641,7 @@
       </c>
       <c r="J181" s="6"/>
     </row>
-    <row r="182" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>179</v>
       </c>
@@ -7584,10 +7652,10 @@
         <v>163</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F182" s="1">
         <v>60</v>
@@ -7603,7 +7671,7 @@
       </c>
       <c r="J182" s="11"/>
     </row>
-    <row r="183" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>180</v>
       </c>
@@ -7614,10 +7682,10 @@
         <v>151</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F183" s="1">
         <v>58</v>
@@ -7633,7 +7701,7 @@
       </c>
       <c r="J183" s="6"/>
     </row>
-    <row r="184" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -7644,10 +7712,10 @@
         <v>163</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F184" s="1">
         <v>51</v>
@@ -7663,7 +7731,7 @@
       </c>
       <c r="J184" s="6"/>
     </row>
-    <row r="185" spans="1:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -7674,10 +7742,10 @@
         <v>181</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F185" s="1">
         <v>50</v>
@@ -7693,7 +7761,7 @@
       </c>
       <c r="J185" s="11"/>
     </row>
-    <row r="186" spans="1:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7704,10 +7772,10 @@
         <v>187</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F186" s="1">
         <v>46</v>
@@ -7723,7 +7791,7 @@
       </c>
       <c r="J186" s="6"/>
     </row>
-    <row r="187" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7734,10 +7802,10 @@
         <v>180</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F187" s="1">
         <v>40</v>
@@ -7753,7 +7821,7 @@
       </c>
       <c r="J187" s="6"/>
     </row>
-    <row r="188" spans="1:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7764,10 +7832,10 @@
         <v>191</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F188" s="1">
         <v>38</v>
@@ -7783,7 +7851,7 @@
       </c>
       <c r="J188" s="6"/>
     </row>
-    <row r="189" spans="1:10" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="98.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7794,10 +7862,10 @@
         <v>178</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F189" s="1">
         <v>35</v>
@@ -7813,7 +7881,7 @@
       </c>
       <c r="J189" s="6"/>
     </row>
-    <row r="190" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7824,10 +7892,10 @@
         <v>185</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F190" s="1">
         <v>34</v>
@@ -7843,7 +7911,7 @@
       </c>
       <c r="J190" s="6"/>
     </row>
-    <row r="191" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7854,10 +7922,10 @@
         <v>177</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F191" s="1">
         <v>33</v>
@@ -7873,7 +7941,7 @@
       </c>
       <c r="J191" s="6"/>
     </row>
-    <row r="192" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7884,10 +7952,10 @@
         <v>183</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F192" s="1">
         <v>33</v>
@@ -7903,7 +7971,7 @@
       </c>
       <c r="J192" s="6"/>
     </row>
-    <row r="193" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7914,10 +7982,10 @@
         <v>191</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F193" s="1">
         <v>32</v>
@@ -7933,7 +8001,7 @@
       </c>
       <c r="J193" s="6"/>
     </row>
-    <row r="194" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7944,10 +8012,10 @@
         <v>194</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F194" s="1">
         <v>28</v>
@@ -7963,7 +8031,7 @@
       </c>
       <c r="J194" s="6"/>
     </row>
-    <row r="195" spans="1:10" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="98.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7974,10 +8042,10 @@
         <v>183</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F195" s="1">
         <v>27</v>
@@ -7993,7 +8061,7 @@
       </c>
       <c r="J195" s="6"/>
     </row>
-    <row r="196" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -8004,10 +8072,10 @@
         <v>187</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F196" s="1">
         <v>26</v>
@@ -8023,7 +8091,7 @@
       </c>
       <c r="J196" s="6"/>
     </row>
-    <row r="197" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -8034,10 +8102,10 @@
         <v>193</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F197" s="1">
         <v>24</v>
@@ -8053,7 +8121,7 @@
       </c>
       <c r="J197" s="6"/>
     </row>
-    <row r="198" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -8064,10 +8132,10 @@
         <v>190</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F198" s="1">
         <v>23</v>
@@ -8083,7 +8151,7 @@
       </c>
       <c r="J198" s="6"/>
     </row>
-    <row r="199" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8094,10 +8162,10 @@
         <v>186</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F199" s="1">
         <v>23</v>
@@ -8113,7 +8181,7 @@
       </c>
       <c r="J199" s="6"/>
     </row>
-    <row r="200" spans="1:10" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="50" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -8124,10 +8192,10 @@
         <v>206</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F200" s="1">
         <v>20</v>
@@ -8143,7 +8211,7 @@
       </c>
       <c r="J200" s="6"/>
     </row>
-    <row r="201" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8154,10 +8222,10 @@
         <v>200</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F201" s="1">
         <v>20</v>
@@ -8173,7 +8241,7 @@
       </c>
       <c r="J201" s="6"/>
     </row>
-    <row r="202" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>199</v>
       </c>
@@ -8184,10 +8252,10 @@
         <v>151</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F202" s="1">
         <v>20</v>
@@ -8203,7 +8271,7 @@
       </c>
       <c r="J202" s="6"/>
     </row>
-    <row r="203" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -8214,10 +8282,10 @@
         <v>195</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F203" s="1">
         <v>19</v>
@@ -8233,7 +8301,7 @@
       </c>
       <c r="J203" s="6"/>
     </row>
-    <row r="204" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -8244,10 +8312,10 @@
         <v>208</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F204" s="1">
         <v>18</v>
@@ -8263,7 +8331,7 @@
       </c>
       <c r="J204" s="6"/>
     </row>
-    <row r="205" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8274,10 +8342,10 @@
         <v>174</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F205" s="1">
         <v>18</v>
@@ -8293,7 +8361,7 @@
       </c>
       <c r="J205" s="6"/>
     </row>
-    <row r="206" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -8304,10 +8372,10 @@
         <v>151</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F206" s="1">
         <v>15</v>
@@ -8323,7 +8391,7 @@
       </c>
       <c r="J206" s="6"/>
     </row>
-    <row r="207" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -8334,10 +8402,10 @@
         <v>189</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F207" s="1">
         <v>14</v>
@@ -8353,7 +8421,7 @@
       </c>
       <c r="J207" s="6"/>
     </row>
-    <row r="208" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8364,10 +8432,10 @@
         <v>205</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F208" s="1">
         <v>14</v>
@@ -8383,7 +8451,7 @@
       </c>
       <c r="J208" s="6"/>
     </row>
-    <row r="209" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -8394,10 +8462,10 @@
         <v>202</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F209" s="1">
         <v>13</v>
@@ -8413,7 +8481,7 @@
       </c>
       <c r="J209" s="6"/>
     </row>
-    <row r="210" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -8424,10 +8492,10 @@
         <v>197</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F210" s="1">
         <v>12</v>
@@ -8443,7 +8511,7 @@
       </c>
       <c r="J210" s="6"/>
     </row>
-    <row r="211" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -8454,10 +8522,10 @@
         <v>204</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F211" s="1">
         <v>11</v>
@@ -8473,7 +8541,7 @@
       </c>
       <c r="J211" s="6"/>
     </row>
-    <row r="212" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -8484,10 +8552,10 @@
         <v>195</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F212" s="1">
         <v>10</v>
@@ -8503,7 +8571,7 @@
       </c>
       <c r="J212" s="6"/>
     </row>
-    <row r="213" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8514,10 +8582,10 @@
         <v>170</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F213" s="1">
         <v>10</v>
@@ -8533,7 +8601,7 @@
       </c>
       <c r="J213" s="6"/>
     </row>
-    <row r="214" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>211</v>
       </c>
@@ -8544,10 +8612,10 @@
         <v>198</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F214" s="1">
         <v>10</v>
@@ -8563,7 +8631,7 @@
       </c>
       <c r="J214" s="6"/>
     </row>
-    <row r="215" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -8574,10 +8642,10 @@
         <v>198</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F215" s="1">
         <v>9</v>
@@ -8593,7 +8661,7 @@
       </c>
       <c r="J215" s="6"/>
     </row>
-    <row r="216" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -8604,10 +8672,10 @@
         <v>207</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F216" s="1">
         <v>8</v>
@@ -8623,7 +8691,7 @@
       </c>
       <c r="J216" s="6"/>
     </row>
-    <row r="217" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -8634,10 +8702,10 @@
         <v>201</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F217" s="1">
         <v>6</v>
@@ -8653,7 +8721,7 @@
       </c>
       <c r="J217" s="6"/>
     </row>
-    <row r="218" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -8664,10 +8732,10 @@
         <v>202</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F218" s="1">
         <v>5</v>
